--- a/Haidir Magribi/peta buat skripsi/2172_Kota Tj Pinang_kec/POLY2172000.xlsx
+++ b/Haidir Magribi/peta buat skripsi/2172_Kota Tj Pinang_kec/POLY2172000.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuliah\Semester 8\Skripsi\Haidir Magribi\peta buat skripsi\2172_Kota Tj Pinang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuliah\Semester 8\Skripsi\Tulisan\Haidir Magribi\peta buat skripsi\2172_Kota Tj Pinang_kec\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,21 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>217201000</t>
-  </si>
-  <si>
-    <t>217202000</t>
-  </si>
-  <si>
-    <t>217203000</t>
-  </si>
-  <si>
-    <t>217204000</t>
   </si>
 </sst>
 </file>
@@ -847,10 +835,13 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -858,23 +849,23 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2">
+        <v>2172010000</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3">
+        <v>2172020000</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4">
+        <v>2172030000</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5">
+        <v>2172040000</v>
       </c>
     </row>
   </sheetData>
